--- a/做事 Doing/D.English——Friends.xlsx
+++ b/做事 Doing/D.English——Friends.xlsx
@@ -872,7 +872,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20180129</c:v>
+                  <c:v>20180130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,25 +890,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="101954304"/>
-        <c:axId val="101955840"/>
+        <c:axId val="112825088"/>
+        <c:axId val="112826624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101954304"/>
+        <c:axId val="112825088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101955840"/>
+        <c:crossAx val="112826624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101955840"/>
+        <c:axId val="112826624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +916,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101954304"/>
+        <c:crossAx val="112825088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -929,7 +929,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" customHeight="1"/>
@@ -1306,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>20180129</v>
+        <v>20180130</v>
       </c>
       <c r="G2" s="4">
         <v>2</v>
